--- a/BackTest/2019-11-12 BackTest DAC.xlsx
+++ b/BackTest/2019-11-12 BackTest DAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3900000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-17.9487179487179</v>
+      </c>
       <c r="L12" t="n">
         <v>3.589000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3900000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-17.9487179487179</v>
+      </c>
       <c r="L13" t="n">
         <v>3.582000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3900000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>45.45454545454545</v>
+      </c>
       <c r="L14" t="n">
         <v>3.575000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>3.584000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4200000000000004</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>3.575000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>3.565</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>3.556</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>3.547</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.4500000000000006</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-77.77777777777733</v>
+      </c>
       <c r="L20" t="n">
         <v>3.54</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5300000000000007</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-85.71428571428544</v>
+      </c>
       <c r="L21" t="n">
         <v>3.525</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5600000000000009</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-52.94117647058789</v>
+      </c>
       <c r="L22" t="n">
         <v>3.516</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5600000000000009</v>
       </c>
       <c r="K23" t="n">
-        <v>-28.57142857142847</v>
+        <v>-52.94117647058789</v>
       </c>
       <c r="L23" t="n">
         <v>3.506999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.6100000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.03278688524586</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L24" t="n">
         <v>3.502999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.6900000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.846153846153843</v>
+        <v>-33.33333333333323</v>
       </c>
       <c r="L25" t="n">
         <v>3.492</v>
@@ -1564,7 +1586,7 @@
         <v>0.7100000000000009</v>
       </c>
       <c r="K26" t="n">
-        <v>-42.10526315789469</v>
+        <v>-18.51851851851842</v>
       </c>
       <c r="L26" t="n">
         <v>3.484999999999999</v>
